--- a/artfynd/A 52664-2019.xlsx
+++ b/artfynd/A 52664-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>475966</v>
+        <v>1561978</v>
       </c>
       <c r="B2" t="n">
-        <v>89544</v>
+        <v>89610</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1503</v>
+        <v>5260</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Lateritticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Postia lateritia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>Renvall</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>783839.8249707882</v>
+        <v>783440.5104734434</v>
       </c>
       <c r="R2" t="n">
-        <v>7531804.227096669</v>
+        <v>7532071.274571465</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1561978</v>
+        <v>175486</v>
       </c>
       <c r="B3" t="n">
-        <v>89610</v>
+        <v>76862</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,34 +816,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5260</v>
+        <v>498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lateritticka</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Postia lateritia</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Renvall</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Raikattivaara V, T lm</t>
+          <t>Västra Raikattevuoma Uuijajärvivägen, T lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>783440.5104734434</v>
+        <v>783828.4892504301</v>
       </c>
       <c r="R3" t="n">
-        <v>7532071.274571465</v>
+        <v>7532079.29326218</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -897,30 +897,22 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>1 substratenheter</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Mats Williamson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Mats Williamson, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>475964</v>
+        <v>475966</v>
       </c>
       <c r="B4" t="n">
         <v>89544</v>
@@ -956,14 +948,14 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Västra Raikattevuoma Uuijajärvivägen, T lm</t>
+          <t>Raikattivaara V, T lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>783741.0945520886</v>
+        <v>783839.8249707882</v>
       </c>
       <c r="R4" t="n">
-        <v>7532012.121067218</v>
+        <v>7531804.227096669</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,25 +1009,33 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1 substratenheter</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Mats Williamson</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Mats Williamson, * Naturskyddare</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>675316</v>
+        <v>475964</v>
       </c>
       <c r="B5" t="n">
-        <v>90840</v>
+        <v>89544</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,25 +1044,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2079</v>
+        <v>1503</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>783736.9962432287</v>
+        <v>783741.0945520886</v>
       </c>
       <c r="R5" t="n">
-        <v>7532039.150136176</v>
+        <v>7532012.121067218</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>475963</v>
+        <v>675316</v>
       </c>
       <c r="B6" t="n">
-        <v>89544</v>
+        <v>90840</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1503</v>
+        <v>2079</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>783702.3988115358</v>
+        <v>783736.9962432287</v>
       </c>
       <c r="R6" t="n">
-        <v>7531995.682737886</v>
+        <v>7532039.150136176</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97482</v>
+        <v>475963</v>
       </c>
       <c r="B7" t="n">
-        <v>77176</v>
+        <v>89544</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,25 +1268,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>1503</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>783929.6424552042</v>
+        <v>783702.3988115358</v>
       </c>
       <c r="R7" t="n">
-        <v>7532062.489508756</v>
+        <v>7531995.682737886</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>475962</v>
+        <v>97482</v>
       </c>
       <c r="B8" t="n">
-        <v>89544</v>
+        <v>77176</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1503</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>783756.0150113704</v>
+        <v>783929.6424552042</v>
       </c>
       <c r="R8" t="n">
-        <v>7532029.397363066</v>
+        <v>7532062.489508756</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>175486</v>
+        <v>475962</v>
       </c>
       <c r="B9" t="n">
-        <v>76862</v>
+        <v>89544</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,21 +1496,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>498</v>
+        <v>1503</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>783828.4892504301</v>
+        <v>783756.0150113704</v>
       </c>
       <c r="R9" t="n">
-        <v>7532079.29326218</v>
+        <v>7532029.397363066</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 52664-2019.xlsx
+++ b/artfynd/A 52664-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1561978</v>
+        <v>475966</v>
       </c>
       <c r="B2" t="n">
-        <v>89610</v>
+        <v>89544</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5260</v>
+        <v>1503</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lateritticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Postia lateritia</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Renvall</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>783440.5104734434</v>
+        <v>783839.8249707882</v>
       </c>
       <c r="R2" t="n">
-        <v>7532071.274571465</v>
+        <v>7531804.227096669</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>175486</v>
+        <v>1561978</v>
       </c>
       <c r="B3" t="n">
-        <v>76862</v>
+        <v>89610</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,34 +816,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>5260</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Lateritticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Postia lateritia</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>Renvall</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Västra Raikattevuoma Uuijajärvivägen, T lm</t>
+          <t>Raikattivaara V, T lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>783828.4892504301</v>
+        <v>783440.5104734434</v>
       </c>
       <c r="R3" t="n">
-        <v>7532079.29326218</v>
+        <v>7532071.274571465</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -897,22 +897,30 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>1 substratenheter</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Mats Williamson</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Mats Williamson, * Naturskyddare</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>475966</v>
+        <v>475964</v>
       </c>
       <c r="B4" t="n">
         <v>89544</v>
@@ -948,14 +956,14 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Raikattivaara V, T lm</t>
+          <t>Västra Raikattevuoma Uuijajärvivägen, T lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>783839.8249707882</v>
+        <v>783741.0945520886</v>
       </c>
       <c r="R4" t="n">
-        <v>7531804.227096669</v>
+        <v>7532012.121067218</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,33 +1017,25 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>1 substratenheter</t>
-        </is>
-      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Mats Williamson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Mats Williamson, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>475964</v>
+        <v>675316</v>
       </c>
       <c r="B5" t="n">
-        <v>89544</v>
+        <v>90840</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,25 +1044,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1503</v>
+        <v>2079</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>783741.0945520886</v>
+        <v>783736.9962432287</v>
       </c>
       <c r="R5" t="n">
-        <v>7532012.121067218</v>
+        <v>7532039.150136176</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>675316</v>
+        <v>475963</v>
       </c>
       <c r="B6" t="n">
-        <v>90840</v>
+        <v>89544</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2079</v>
+        <v>1503</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>783736.9962432287</v>
+        <v>783702.3988115358</v>
       </c>
       <c r="R6" t="n">
-        <v>7532039.150136176</v>
+        <v>7531995.682737886</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>475963</v>
+        <v>97482</v>
       </c>
       <c r="B7" t="n">
-        <v>89544</v>
+        <v>77176</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,25 +1268,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1503</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>783702.3988115358</v>
+        <v>783929.6424552042</v>
       </c>
       <c r="R7" t="n">
-        <v>7531995.682737886</v>
+        <v>7532062.489508756</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97482</v>
+        <v>475962</v>
       </c>
       <c r="B8" t="n">
-        <v>77176</v>
+        <v>89544</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>1503</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>783929.6424552042</v>
+        <v>783756.0150113704</v>
       </c>
       <c r="R8" t="n">
-        <v>7532062.489508756</v>
+        <v>7532029.397363066</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>475962</v>
+        <v>175486</v>
       </c>
       <c r="B9" t="n">
-        <v>89544</v>
+        <v>76862</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,21 +1496,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1503</v>
+        <v>498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>783756.0150113704</v>
+        <v>783828.4892504301</v>
       </c>
       <c r="R9" t="n">
-        <v>7532029.397363066</v>
+        <v>7532079.29326218</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
